--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H2">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.7673063333333</v>
+        <v>145.520762</v>
       </c>
       <c r="N2">
-        <v>425.301919</v>
+        <v>436.562286</v>
       </c>
       <c r="O2">
-        <v>0.9653621431809045</v>
+        <v>0.962605808965774</v>
       </c>
       <c r="P2">
-        <v>0.9653621431809047</v>
+        <v>0.9626058089657743</v>
       </c>
       <c r="Q2">
-        <v>204.4810986590851</v>
+        <v>19.58714307212067</v>
       </c>
       <c r="R2">
-        <v>1840.329887931766</v>
+        <v>176.284287649086</v>
       </c>
       <c r="S2">
-        <v>0.03400047960093986</v>
+        <v>0.009290160936218508</v>
       </c>
       <c r="T2">
-        <v>0.03400047960093987</v>
+        <v>0.009290160936218511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H3">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.19568</v>
       </c>
       <c r="O3">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="P3">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="Q3">
-        <v>5.382775963057777</v>
+        <v>0.5023140866311112</v>
       </c>
       <c r="R3">
-        <v>48.44498366752</v>
+        <v>4.52082677968</v>
       </c>
       <c r="S3">
-        <v>0.0008950312059575972</v>
+        <v>0.0002382470321552303</v>
       </c>
       <c r="T3">
-        <v>0.0008950312059575973</v>
+        <v>0.0002382470321552303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H4">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.354815</v>
+        <v>1.921128</v>
       </c>
       <c r="N4">
-        <v>4.064445</v>
+        <v>5.763384</v>
       </c>
       <c r="O4">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="P4">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="Q4">
-        <v>1.95414631797</v>
+        <v>0.258584469176</v>
       </c>
       <c r="R4">
-        <v>17.58731686173</v>
+        <v>2.327260222584</v>
       </c>
       <c r="S4">
-        <v>0.0003249293575645541</v>
+        <v>0.0001226463361913649</v>
       </c>
       <c r="T4">
-        <v>0.0003249293575645541</v>
+        <v>0.0001226463361913649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.994191</v>
       </c>
       <c r="I5">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J5">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.7673063333333</v>
+        <v>145.520762</v>
       </c>
       <c r="N5">
-        <v>425.301919</v>
+        <v>436.562286</v>
       </c>
       <c r="O5">
-        <v>0.9653621431809045</v>
+        <v>0.962605808965774</v>
       </c>
       <c r="P5">
-        <v>0.9653621431809047</v>
+        <v>0.9626058089657743</v>
       </c>
       <c r="Q5">
-        <v>1606.421629683614</v>
+        <v>1648.953525964514</v>
       </c>
       <c r="R5">
-        <v>14457.79466715253</v>
+        <v>14840.58173368062</v>
       </c>
       <c r="S5">
-        <v>0.2671107804522723</v>
+        <v>0.7820968875425042</v>
       </c>
       <c r="T5">
-        <v>0.2671107804522723</v>
+        <v>0.7820968875425046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.994191</v>
       </c>
       <c r="I6">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J6">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.19568</v>
       </c>
       <c r="O6">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="P6">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="Q6">
         <v>42.28756492165333</v>
@@ -818,10 +818,10 @@
         <v>380.58808429488</v>
       </c>
       <c r="S6">
-        <v>0.007031444460738244</v>
+        <v>0.0200569466550802</v>
       </c>
       <c r="T6">
-        <v>0.007031444460738244</v>
+        <v>0.0200569466550802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.994191</v>
       </c>
       <c r="I7">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J7">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.354815</v>
+        <v>1.921128</v>
       </c>
       <c r="N7">
-        <v>4.064445</v>
+        <v>5.763384</v>
       </c>
       <c r="O7">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="P7">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="Q7">
-        <v>15.351946626555</v>
+        <v>21.769064055816</v>
       </c>
       <c r="R7">
-        <v>138.167519638995</v>
+        <v>195.921576502344</v>
       </c>
       <c r="S7">
-        <v>0.00255267382429877</v>
+        <v>0.01032504371692856</v>
       </c>
       <c r="T7">
-        <v>0.00255267382429877</v>
+        <v>0.01032504371692856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H8">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I8">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J8">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>141.7673063333333</v>
+        <v>145.520762</v>
       </c>
       <c r="N8">
-        <v>425.301919</v>
+        <v>436.562286</v>
       </c>
       <c r="O8">
-        <v>0.9653621431809045</v>
+        <v>0.962605808965774</v>
       </c>
       <c r="P8">
-        <v>0.9653621431809047</v>
+        <v>0.9626058089657743</v>
       </c>
       <c r="Q8">
-        <v>3994.848071597892</v>
+        <v>360.9933542934</v>
       </c>
       <c r="R8">
-        <v>35953.63264438103</v>
+        <v>3248.9401886406</v>
       </c>
       <c r="S8">
-        <v>0.6642508831276924</v>
+        <v>0.1712187604870512</v>
       </c>
       <c r="T8">
-        <v>0.6642508831276925</v>
+        <v>0.1712187604870513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H9">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I9">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J9">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.19568</v>
       </c>
       <c r="O9">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="P9">
-        <v>0.02541226633677049</v>
+        <v>0.02468611455667964</v>
       </c>
       <c r="Q9">
-        <v>105.1606838816711</v>
+        <v>9.257707792</v>
       </c>
       <c r="R9">
-        <v>946.4461549350399</v>
+        <v>83.31937012799999</v>
       </c>
       <c r="S9">
-        <v>0.01748579067007465</v>
+        <v>0.004390920869444205</v>
       </c>
       <c r="T9">
-        <v>0.01748579067007465</v>
+        <v>0.004390920869444205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H10">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I10">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J10">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.354815</v>
+        <v>1.921128</v>
       </c>
       <c r="N10">
-        <v>4.064445</v>
+        <v>5.763384</v>
       </c>
       <c r="O10">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="P10">
-        <v>0.009225590482324892</v>
+        <v>0.01270807647754621</v>
       </c>
       <c r="Q10">
-        <v>38.17720904844001</v>
+        <v>4.765742229600001</v>
       </c>
       <c r="R10">
-        <v>343.59488143596</v>
+        <v>42.8916800664</v>
       </c>
       <c r="S10">
-        <v>0.006347987300461568</v>
+        <v>0.002260386424426281</v>
       </c>
       <c r="T10">
-        <v>0.006347987300461567</v>
+        <v>0.002260386424426281</v>
       </c>
     </row>
   </sheetData>
